--- a/Jogos_do_Dia/2023-06-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>League</t>
   </si>
@@ -151,12 +151,12 @@
     <t>Brazil Serie D</t>
   </si>
   <si>
+    <t>Brazil Serie C</t>
+  </si>
+  <si>
     <t>Colombia Categoria Primera B</t>
   </si>
   <si>
-    <t>Brazil Serie C</t>
-  </si>
-  <si>
     <t>04:30:00</t>
   </si>
   <si>
@@ -196,27 +196,36 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:05:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
     <t>Suwon</t>
   </si>
   <si>
     <t>Pohang Steelers</t>
   </si>
   <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
     <t>GIF Sundsvall</t>
   </si>
   <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
     <t>Örgryte</t>
   </si>
   <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
     <t>Fatih Karagümrük</t>
   </si>
   <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
     <t>Kuressaare</t>
   </si>
   <si>
@@ -250,31 +259,43 @@
     <t>Tombense</t>
   </si>
   <si>
+    <t>Atlético PR</t>
+  </si>
+  <si>
+    <t>Monagas</t>
+  </si>
+  <si>
     <t>Ponte Preta</t>
   </si>
   <si>
-    <t>Monagas</t>
-  </si>
-  <si>
-    <t>Atlético PR</t>
-  </si>
-  <si>
     <t>Potiguar Mossoró</t>
   </si>
   <si>
+    <t>Náutico</t>
+  </si>
+  <si>
     <t>Cortuluá</t>
   </si>
   <si>
-    <t>Náutico</t>
+    <t>Alianza Lima</t>
+  </si>
+  <si>
+    <t>Melgar</t>
   </si>
   <si>
     <t>Boca Juniors</t>
   </si>
   <si>
-    <t>Melgar</t>
-  </si>
-  <si>
-    <t>Alianza Lima</t>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
+    <t>Atlético GO</t>
+  </si>
+  <si>
+    <t>Valledupar</t>
+  </si>
+  <si>
+    <t>Bolívar</t>
   </si>
   <si>
     <t>Ulsan</t>
@@ -283,21 +304,21 @@
     <t>Jeju United</t>
   </si>
   <si>
+    <t>Jönköpings Södra</t>
+  </si>
+  <si>
     <t>GAIS</t>
   </si>
   <si>
-    <t>Jönköpings Södra</t>
-  </si>
-  <si>
     <t>Landskrona</t>
   </si>
   <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
     <t>Kasımpaşa</t>
   </si>
   <si>
-    <t>Kayserispor</t>
-  </si>
-  <si>
     <t>Tallinna FC Levadia</t>
   </si>
   <si>
@@ -331,31 +352,43 @@
     <t>Vitória</t>
   </si>
   <si>
+    <t>Libertad</t>
+  </si>
+  <si>
+    <t>Deportivo Pereira</t>
+  </si>
+  <si>
     <t>ABC</t>
   </si>
   <si>
-    <t>Deportivo Pereira</t>
-  </si>
-  <si>
-    <t>Libertad</t>
-  </si>
-  <si>
     <t>Sousa</t>
   </si>
   <si>
+    <t>Volta Redonda</t>
+  </si>
+  <si>
     <t>Patriotas Boyacá</t>
   </si>
   <si>
-    <t>Volta Redonda</t>
+    <t>Atlético Mineiro</t>
+  </si>
+  <si>
+    <t>Patronato</t>
   </si>
   <si>
     <t>Colo-Colo</t>
   </si>
   <si>
-    <t>Patronato</t>
-  </si>
-  <si>
-    <t>Atlético Mineiro</t>
+    <t>Ituano</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Cúcuta Deportivo</t>
+  </si>
+  <si>
+    <t>Cerro Porteño</t>
   </si>
 </sst>
 </file>
@@ -717,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,19 +877,19 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G2">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>3.9</v>
       </c>
       <c r="I2">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="J2">
         <v>1.04</v>
@@ -871,10 +904,10 @@
         <v>4</v>
       </c>
       <c r="N2">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O2">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P2">
         <v>1.3</v>
@@ -951,19 +984,19 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G3">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -978,10 +1011,10 @@
         <v>2.95</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="P3">
         <v>1.45</v>
@@ -1058,43 +1091,43 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G4">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="H4">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I4">
-        <v>1.98</v>
+        <v>2.9</v>
       </c>
       <c r="J4">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L4">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P4">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q4">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="R4">
         <v>1.67</v>
@@ -1103,52 +1136,52 @@
         <v>2.1</v>
       </c>
       <c r="T4">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="U4">
         <v>1.3</v>
       </c>
       <c r="V4">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="W4">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X4">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="Z4">
-        <v>1.86</v>
+        <v>1.16</v>
       </c>
       <c r="AA4">
-        <v>3.32</v>
+        <v>2.6</v>
       </c>
       <c r="AB4">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="AC4">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4">
-        <v>1.64</v>
+        <v>2.43</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF4">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AG4">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="AH4">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="AI4">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1165,43 +1198,43 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G5">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="J5">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K5">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P5">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q5">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="R5">
         <v>1.67</v>
@@ -1210,52 +1243,52 @@
         <v>2.1</v>
       </c>
       <c r="T5">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="U5">
         <v>1.3</v>
       </c>
       <c r="V5">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="W5">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y5">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Z5">
-        <v>1.16</v>
+        <v>1.86</v>
       </c>
       <c r="AA5">
-        <v>2.6</v>
+        <v>3.32</v>
       </c>
       <c r="AB5">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="AC5">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5">
-        <v>2.43</v>
+        <v>1.64</v>
       </c>
       <c r="AE5">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="AG5">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="AH5">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="AI5">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1272,19 +1305,19 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G6">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H6">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I6">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1299,10 +1332,10 @@
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="O6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P6">
         <v>1.36</v>
@@ -1379,97 +1412,97 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G7">
-        <v>2.33</v>
+        <v>1.59</v>
       </c>
       <c r="H7">
-        <v>3.79</v>
+        <v>4.4</v>
       </c>
       <c r="I7">
-        <v>2.89</v>
+        <v>5.1</v>
       </c>
       <c r="J7">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L7">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M7">
-        <v>4.53</v>
+        <v>4.07</v>
       </c>
       <c r="N7">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="O7">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="P7">
+        <v>1.3</v>
+      </c>
+      <c r="Q7">
+        <v>3.2</v>
+      </c>
+      <c r="R7">
+        <v>1.65</v>
+      </c>
+      <c r="S7">
+        <v>2.18</v>
+      </c>
+      <c r="T7">
+        <v>1.25</v>
+      </c>
+      <c r="U7">
         <v>1.29</v>
       </c>
-      <c r="Q7">
-        <v>3.24</v>
-      </c>
-      <c r="R7">
-        <v>1.57</v>
-      </c>
-      <c r="S7">
-        <v>2.34</v>
-      </c>
-      <c r="T7">
-        <v>1.3</v>
-      </c>
-      <c r="U7">
-        <v>1.27</v>
-      </c>
       <c r="V7">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="W7">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="X7">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="Y7">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="Z7">
         <v>1.32</v>
       </c>
       <c r="AA7">
-        <v>2.87</v>
+        <v>3.02</v>
       </c>
       <c r="AB7">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AC7">
         <v>7</v>
       </c>
       <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>1.24</v>
+      </c>
+      <c r="AF7">
+        <v>1.52</v>
+      </c>
+      <c r="AG7">
+        <v>1.84</v>
+      </c>
+      <c r="AH7">
         <v>2.25</v>
       </c>
-      <c r="AE7">
-        <v>1.2</v>
-      </c>
-      <c r="AF7">
-        <v>1.48</v>
-      </c>
-      <c r="AG7">
-        <v>1.76</v>
-      </c>
-      <c r="AH7">
-        <v>2.18</v>
-      </c>
       <c r="AI7">
-        <v>2.7</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1486,97 +1519,97 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="H8">
-        <v>3.95</v>
+        <v>4.14</v>
       </c>
       <c r="I8">
-        <v>4.1</v>
+        <v>3.06</v>
       </c>
       <c r="J8">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L8">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M8">
-        <v>4.07</v>
+        <v>4.53</v>
       </c>
       <c r="N8">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="O8">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="P8">
+        <v>1.29</v>
+      </c>
+      <c r="Q8">
+        <v>3.24</v>
+      </c>
+      <c r="R8">
+        <v>1.57</v>
+      </c>
+      <c r="S8">
+        <v>2.34</v>
+      </c>
+      <c r="T8">
         <v>1.3</v>
       </c>
-      <c r="Q8">
-        <v>3.2</v>
-      </c>
-      <c r="R8">
-        <v>1.65</v>
-      </c>
-      <c r="S8">
-        <v>2.18</v>
-      </c>
-      <c r="T8">
-        <v>1.25</v>
-      </c>
       <c r="U8">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="V8">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="W8">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="X8">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="Y8">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="Z8">
         <v>1.32</v>
       </c>
       <c r="AA8">
-        <v>3.02</v>
+        <v>2.87</v>
       </c>
       <c r="AB8">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="AC8">
         <v>7</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AE8">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AF8">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AG8">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="AH8">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AI8">
-        <v>3.08</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1593,58 +1626,58 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W9">
         <v>0.57</v>
@@ -1700,73 +1733,73 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W10">
         <v>0.83</v>
       </c>
       <c r="X10">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="Y10">
         <v>1.3</v>
       </c>
       <c r="Z10">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1807,19 +1840,19 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G11">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I11">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="J11">
         <v>1.05</v>
@@ -1828,16 +1861,16 @@
         <v>8</v>
       </c>
       <c r="L11">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="M11">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="N11">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="O11">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P11">
         <v>1.5</v>
@@ -1876,16 +1909,16 @@
         <v>2.72</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF11">
         <v>1.59</v>
@@ -1897,7 +1930,7 @@
         <v>2.48</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1914,19 +1947,19 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H12">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J12">
         <v>1.1</v>
@@ -1941,10 +1974,10 @@
         <v>2.68</v>
       </c>
       <c r="N12">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O12">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="P12">
         <v>1.53</v>
@@ -1983,13 +2016,13 @@
         <v>2.47</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AE12">
         <v>1.61</v>
@@ -2001,7 +2034,7 @@
         <v>2.37</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -2021,19 +2054,19 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G13">
-        <v>5.5</v>
+        <v>2.82</v>
       </c>
       <c r="H13">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I13">
-        <v>1.5</v>
+        <v>2.31</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -2048,10 +2081,10 @@
         <v>3.3</v>
       </c>
       <c r="N13">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O13">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P13">
         <v>1.39</v>
@@ -2128,19 +2161,19 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G14">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="H14">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>6.35</v>
       </c>
       <c r="J14">
         <v>1.04</v>
@@ -2155,10 +2188,10 @@
         <v>3.05</v>
       </c>
       <c r="N14">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="O14">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="P14">
         <v>1.43</v>
@@ -2235,58 +2268,58 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>0.86</v>
@@ -2342,19 +2375,19 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G16">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="H16">
-        <v>3.53</v>
+        <v>3.64</v>
       </c>
       <c r="I16">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="J16">
         <v>1.04</v>
@@ -2369,10 +2402,10 @@
         <v>4.07</v>
       </c>
       <c r="N16">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>1.3</v>
@@ -2411,28 +2444,28 @@
         <v>3.4</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2449,19 +2482,19 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G17">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H17">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I17">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <v>1.05</v>
@@ -2476,10 +2509,10 @@
         <v>2.88</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P17">
         <v>1.51</v>
@@ -2518,16 +2551,16 @@
         <v>2.53</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF17">
         <v>1.65</v>
@@ -2536,10 +2569,10 @@
         <v>2.04</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2556,10 +2589,10 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G18">
         <v>2.45</v>
@@ -2568,7 +2601,7 @@
         <v>2.9</v>
       </c>
       <c r="I18">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>1.1</v>
@@ -2586,7 +2619,7 @@
         <v>2.3</v>
       </c>
       <c r="O18">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P18">
         <v>1.52</v>
@@ -2625,28 +2658,28 @@
         <v>3.31</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2663,19 +2696,19 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G19">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I19">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="J19">
         <v>1.1</v>
@@ -2690,10 +2723,10 @@
         <v>2.6</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O19">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P19">
         <v>1.52</v>
@@ -2732,33 +2765,33 @@
         <v>3.49</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
         <v>45083</v>
@@ -2767,100 +2800,100 @@
         <v>57</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G20">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H20">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I20">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <v>1.08</v>
       </c>
       <c r="K20">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>1.42</v>
       </c>
       <c r="M20">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="P20">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="Q20">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="R20">
         <v>2.1</v>
       </c>
       <c r="S20">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="T20">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="U20">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="V20">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="W20">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="X20">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="Y20">
-        <v>1.75</v>
+        <v>1.02</v>
       </c>
       <c r="Z20">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AA20">
-        <v>2.81</v>
+        <v>2.25</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2877,19 +2910,19 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G21">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I21">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J21">
         <v>1.06</v>
@@ -2904,10 +2937,10 @@
         <v>3.1</v>
       </c>
       <c r="N21">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O21">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P21">
         <v>1.45</v>
@@ -2946,33 +2979,33 @@
         <v>2.57</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2">
         <v>45083</v>
@@ -2981,100 +3014,100 @@
         <v>57</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G22">
         <v>1.73</v>
       </c>
       <c r="H22">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I22">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <v>1.08</v>
       </c>
       <c r="K22">
-        <v>8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="L22">
         <v>1.42</v>
       </c>
       <c r="M22">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="N22">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="O22">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P22">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="Q22">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="R22">
         <v>2.1</v>
       </c>
       <c r="S22">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="T22">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="U22">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="V22">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="W22">
+        <v>1.6</v>
+      </c>
+      <c r="X22">
+        <v>0.2</v>
+      </c>
+      <c r="Y22">
         <v>1.75</v>
       </c>
-      <c r="X22">
-        <v>1.5</v>
-      </c>
-      <c r="Y22">
-        <v>1.02</v>
-      </c>
       <c r="Z22">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="AA22">
-        <v>2.25</v>
+        <v>2.81</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3091,19 +3124,19 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3118,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3195,76 +3228,76 @@
         <v>58</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G24">
-        <v>3.11</v>
+        <v>1.98</v>
       </c>
       <c r="H24">
-        <v>2.87</v>
+        <v>3.24</v>
       </c>
       <c r="I24">
-        <v>2.6</v>
+        <v>3.76</v>
       </c>
       <c r="J24">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P24">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="X24">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1.88</v>
+        <v>1.54</v>
       </c>
       <c r="Z24">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="AA24">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3302,97 +3335,97 @@
         <v>58</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W25">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Y25">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="Z25">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="AA25">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -3412,97 +3445,97 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G26">
-        <v>1.57</v>
+        <v>4.4</v>
       </c>
       <c r="H26">
         <v>3.4</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="J26">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K26">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N26">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O26">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P26">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q26">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R26">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="T26">
-        <v>1.11</v>
+        <v>2.05</v>
       </c>
       <c r="U26">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V26">
-        <v>2.4</v>
+        <v>1.18</v>
       </c>
       <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
         <v>1.75</v>
       </c>
-      <c r="X26">
-        <v>1.25</v>
-      </c>
       <c r="Y26">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Z26">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AA26">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3519,19 +3552,19 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G27">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H27">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I27">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J27">
         <v>1.07</v>
@@ -3546,10 +3579,10 @@
         <v>3.18</v>
       </c>
       <c r="N27">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P27">
         <v>1.44</v>
@@ -3588,28 +3621,28 @@
         <v>2.9</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3626,97 +3659,525 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G28">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H28">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I28">
+        <v>6.25</v>
+      </c>
+      <c r="J28">
+        <v>1.06</v>
+      </c>
+      <c r="K28">
+        <v>9.5</v>
+      </c>
+      <c r="L28">
+        <v>1.38</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>2.2</v>
+      </c>
+      <c r="O28">
+        <v>1.6</v>
+      </c>
+      <c r="P28">
+        <v>1.44</v>
+      </c>
+      <c r="Q28">
+        <v>2.63</v>
+      </c>
+      <c r="R28">
+        <v>2.25</v>
+      </c>
+      <c r="S28">
+        <v>1.57</v>
+      </c>
+      <c r="T28">
+        <v>1.11</v>
+      </c>
+      <c r="U28">
+        <v>1.25</v>
+      </c>
+      <c r="V28">
+        <v>2.4</v>
+      </c>
+      <c r="W28">
         <v>1.75</v>
       </c>
-      <c r="J28">
+      <c r="X28">
+        <v>1.25</v>
+      </c>
+      <c r="Y28">
+        <v>1.72</v>
+      </c>
+      <c r="Z28">
+        <v>1.62</v>
+      </c>
+      <c r="AA28">
+        <v>3.34</v>
+      </c>
+      <c r="AB28">
+        <v>1.23</v>
+      </c>
+      <c r="AC28">
+        <v>7.25</v>
+      </c>
+      <c r="AD28">
+        <v>4.9</v>
+      </c>
+      <c r="AE28">
+        <v>1.29</v>
+      </c>
+      <c r="AF28">
+        <v>1.63</v>
+      </c>
+      <c r="AG28">
+        <v>2</v>
+      </c>
+      <c r="AH28">
+        <v>2.5</v>
+      </c>
+      <c r="AI28">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45083</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29">
+        <v>2.05</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>3.75</v>
+      </c>
+      <c r="J29">
+        <v>1.1</v>
+      </c>
+      <c r="K29">
+        <v>6.5</v>
+      </c>
+      <c r="L29">
+        <v>1.45</v>
+      </c>
+      <c r="M29">
+        <v>2.6</v>
+      </c>
+      <c r="N29">
+        <v>2.35</v>
+      </c>
+      <c r="O29">
+        <v>1.53</v>
+      </c>
+      <c r="P29">
+        <v>1.49</v>
+      </c>
+      <c r="Q29">
+        <v>2.45</v>
+      </c>
+      <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
+        <v>1.68</v>
+      </c>
+      <c r="T29">
+        <v>1.3</v>
+      </c>
+      <c r="U29">
+        <v>1.33</v>
+      </c>
+      <c r="V29">
+        <v>1.66</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1.56</v>
+      </c>
+      <c r="Z29">
+        <v>1.29</v>
+      </c>
+      <c r="AA29">
+        <v>2.85</v>
+      </c>
+      <c r="AB29">
+        <v>1.55</v>
+      </c>
+      <c r="AC29">
+        <v>7</v>
+      </c>
+      <c r="AD29">
+        <v>3.2</v>
+      </c>
+      <c r="AE29">
+        <v>1.25</v>
+      </c>
+      <c r="AF29">
+        <v>1.52</v>
+      </c>
+      <c r="AG29">
+        <v>1.88</v>
+      </c>
+      <c r="AH29">
+        <v>2.36</v>
+      </c>
+      <c r="AI29">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45083</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30">
+        <v>2.05</v>
+      </c>
+      <c r="H30">
+        <v>2.9</v>
+      </c>
+      <c r="I30">
+        <v>3.9</v>
+      </c>
+      <c r="J30">
+        <v>1.07</v>
+      </c>
+      <c r="K30">
+        <v>7.5</v>
+      </c>
+      <c r="L30">
+        <v>1.36</v>
+      </c>
+      <c r="M30">
+        <v>2.95</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>1.7</v>
+      </c>
+      <c r="P30">
+        <v>1.42</v>
+      </c>
+      <c r="Q30">
+        <v>2.65</v>
+      </c>
+      <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
+        <v>1.78</v>
+      </c>
+      <c r="T30">
+        <v>1.34</v>
+      </c>
+      <c r="U30">
+        <v>1.3</v>
+      </c>
+      <c r="V30">
+        <v>1.63</v>
+      </c>
+      <c r="W30">
+        <v>2.2</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <v>1.63</v>
+      </c>
+      <c r="Z30">
+        <v>1.18</v>
+      </c>
+      <c r="AA30">
+        <v>2.81</v>
+      </c>
+      <c r="AB30">
+        <v>1.47</v>
+      </c>
+      <c r="AC30">
+        <v>10.5</v>
+      </c>
+      <c r="AD30">
+        <v>3.15</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>1.22</v>
+      </c>
+      <c r="AG30">
+        <v>1.42</v>
+      </c>
+      <c r="AH30">
+        <v>1.79</v>
+      </c>
+      <c r="AI30">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45083</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31">
+        <v>2.9</v>
+      </c>
+      <c r="H31">
+        <v>2.95</v>
+      </c>
+      <c r="I31">
+        <v>2.5</v>
+      </c>
+      <c r="J31">
         <v>1.05</v>
       </c>
-      <c r="K28">
-        <v>10</v>
-      </c>
-      <c r="L28">
+      <c r="K31">
+        <v>6.9</v>
+      </c>
+      <c r="L31">
+        <v>1.42</v>
+      </c>
+      <c r="M31">
+        <v>2.57</v>
+      </c>
+      <c r="N31">
+        <v>2.4</v>
+      </c>
+      <c r="O31">
+        <v>1.53</v>
+      </c>
+      <c r="P31">
+        <v>1.5</v>
+      </c>
+      <c r="Q31">
+        <v>2.42</v>
+      </c>
+      <c r="R31">
+        <v>1.95</v>
+      </c>
+      <c r="S31">
+        <v>1.72</v>
+      </c>
+      <c r="T31">
+        <v>1.47</v>
+      </c>
+      <c r="U31">
+        <v>1.32</v>
+      </c>
+      <c r="V31">
+        <v>1.38</v>
+      </c>
+      <c r="W31">
+        <v>1.6</v>
+      </c>
+      <c r="X31">
+        <v>1.2</v>
+      </c>
+      <c r="Y31">
+        <v>1.49</v>
+      </c>
+      <c r="Z31">
+        <v>1.32</v>
+      </c>
+      <c r="AA31">
+        <v>2.81</v>
+      </c>
+      <c r="AB31">
+        <v>2.36</v>
+      </c>
+      <c r="AC31">
+        <v>7.8</v>
+      </c>
+      <c r="AD31">
+        <v>1.81</v>
+      </c>
+      <c r="AE31">
+        <v>1.6</v>
+      </c>
+      <c r="AF31">
+        <v>2.03</v>
+      </c>
+      <c r="AG31">
+        <v>2.36</v>
+      </c>
+      <c r="AH31">
+        <v>3.64</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45083</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32">
+        <v>1.55</v>
+      </c>
+      <c r="H32">
+        <v>4.1</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>10.5</v>
+      </c>
+      <c r="L32">
+        <v>1.2</v>
+      </c>
+      <c r="M32">
+        <v>3.95</v>
+      </c>
+      <c r="N32">
+        <v>1.7</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
         <v>1.33</v>
       </c>
-      <c r="M28">
-        <v>3.3</v>
-      </c>
-      <c r="N28">
-        <v>2.02</v>
-      </c>
-      <c r="O28">
+      <c r="Q32">
+        <v>3.25</v>
+      </c>
+      <c r="R32">
         <v>1.8</v>
       </c>
-      <c r="P28">
-        <v>1.4</v>
-      </c>
-      <c r="Q28">
-        <v>2.75</v>
-      </c>
-      <c r="R28">
+      <c r="S32">
         <v>1.95</v>
       </c>
-      <c r="S28">
-        <v>1.8</v>
-      </c>
-      <c r="T28">
-        <v>2.05</v>
-      </c>
-      <c r="U28">
-        <v>1.28</v>
-      </c>
-      <c r="V28">
-        <v>1.18</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28">
-        <v>1.75</v>
-      </c>
-      <c r="Y28">
-        <v>1.76</v>
-      </c>
-      <c r="Z28">
-        <v>1.74</v>
-      </c>
-      <c r="AA28">
-        <v>3.5</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
+      <c r="T32">
+        <v>1.14</v>
+      </c>
+      <c r="U32">
+        <v>1.22</v>
+      </c>
+      <c r="V32">
+        <v>2.41</v>
+      </c>
+      <c r="W32">
+        <v>2.25</v>
+      </c>
+      <c r="X32">
+        <v>1.88</v>
+      </c>
+      <c r="Y32">
+        <v>2.31</v>
+      </c>
+      <c r="Z32">
+        <v>1.51</v>
+      </c>
+      <c r="AA32">
+        <v>3.82</v>
+      </c>
+      <c r="AB32">
+        <v>1.25</v>
+      </c>
+      <c r="AC32">
+        <v>7</v>
+      </c>
+      <c r="AD32">
+        <v>4.65</v>
+      </c>
+      <c r="AE32">
+        <v>1.26</v>
+      </c>
+      <c r="AF32">
+        <v>1.51</v>
+      </c>
+      <c r="AG32">
+        <v>1.89</v>
+      </c>
+      <c r="AH32">
+        <v>2.44</v>
+      </c>
+      <c r="AI32">
+        <v>3.28</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-06-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -148,12 +148,12 @@
     <t>South America Copa Libertadores</t>
   </si>
   <si>
+    <t>Brazil Serie C</t>
+  </si>
+  <si>
     <t>Brazil Serie D</t>
   </si>
   <si>
-    <t>Brazil Serie C</t>
-  </si>
-  <si>
     <t>Colombia Categoria Primera B</t>
   </si>
   <si>
@@ -211,21 +211,21 @@
     <t>Pohang Steelers</t>
   </si>
   <si>
+    <t>Örgryte</t>
+  </si>
+  <si>
     <t>Helsingborg</t>
   </si>
   <si>
     <t>GIF Sundsvall</t>
   </si>
   <si>
-    <t>Örgryte</t>
+    <t>Fatih Karagümrük</t>
   </si>
   <si>
     <t>Sivasspor</t>
   </si>
   <si>
-    <t>Fatih Karagümrük</t>
-  </si>
-  <si>
     <t>Kuressaare</t>
   </si>
   <si>
@@ -238,25 +238,28 @@
     <t>El Daklyeh FC</t>
   </si>
   <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
+    <t>İstanbul Başakşehir</t>
   </si>
   <si>
     <t>Nõmme Kalju</t>
   </si>
   <si>
-    <t>İstanbul Başakşehir</t>
-  </si>
-  <si>
     <t>Coca-Cola</t>
   </si>
   <si>
+    <t>Tombense</t>
+  </si>
+  <si>
     <t>Chapecoense</t>
   </si>
   <si>
-    <t>Tombense</t>
+    <t>Ponte Preta</t>
   </si>
   <si>
     <t>Atlético PR</t>
@@ -265,27 +268,24 @@
     <t>Monagas</t>
   </si>
   <si>
-    <t>Ponte Preta</t>
+    <t>Náutico</t>
   </si>
   <si>
     <t>Potiguar Mossoró</t>
   </si>
   <si>
-    <t>Náutico</t>
-  </si>
-  <si>
     <t>Cortuluá</t>
   </si>
   <si>
+    <t>Melgar</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
     <t>Alianza Lima</t>
   </si>
   <si>
-    <t>Melgar</t>
-  </si>
-  <si>
-    <t>Boca Juniors</t>
-  </si>
-  <si>
     <t>Botafogo SP</t>
   </si>
   <si>
@@ -304,21 +304,21 @@
     <t>Jeju United</t>
   </si>
   <si>
+    <t>Landskrona</t>
+  </si>
+  <si>
     <t>Jönköpings Södra</t>
   </si>
   <si>
     <t>GAIS</t>
   </si>
   <si>
-    <t>Landskrona</t>
+    <t>Kasımpaşa</t>
   </si>
   <si>
     <t>Kayserispor</t>
   </si>
   <si>
-    <t>Kasımpaşa</t>
-  </si>
-  <si>
     <t>Tallinna FC Levadia</t>
   </si>
   <si>
@@ -331,25 +331,28 @@
     <t>Haras El Hodood</t>
   </si>
   <si>
+    <t>Lokomotiv Sofia 1929</t>
+  </si>
+  <si>
     <t>Arda</t>
   </si>
   <si>
-    <t>Lokomotiv Sofia 1929</t>
+    <t>Trabzonspor</t>
   </si>
   <si>
     <t>Vaprus</t>
   </si>
   <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
     <t>ENPPI</t>
   </si>
   <si>
+    <t>Vitória</t>
+  </si>
+  <si>
     <t>Vila Nova</t>
   </si>
   <si>
-    <t>Vitória</t>
+    <t>ABC</t>
   </si>
   <si>
     <t>Libertad</t>
@@ -358,25 +361,22 @@
     <t>Deportivo Pereira</t>
   </si>
   <si>
-    <t>ABC</t>
+    <t>Volta Redonda</t>
   </si>
   <si>
     <t>Sousa</t>
   </si>
   <si>
-    <t>Volta Redonda</t>
-  </si>
-  <si>
     <t>Patriotas Boyacá</t>
   </si>
   <si>
+    <t>Patronato</t>
+  </si>
+  <si>
+    <t>Colo-Colo</t>
+  </si>
+  <si>
     <t>Atlético Mineiro</t>
-  </si>
-  <si>
-    <t>Patronato</t>
-  </si>
-  <si>
-    <t>Colo-Colo</t>
   </si>
   <si>
     <t>Ituano</t>
@@ -883,13 +883,13 @@
         <v>94</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4.08</v>
       </c>
       <c r="H2">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="I2">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="J2">
         <v>1.04</v>
@@ -931,10 +931,10 @@
         <v>1.18</v>
       </c>
       <c r="W2">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X2">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="Y2">
         <v>1.43</v>
@@ -990,13 +990,13 @@
         <v>95</v>
       </c>
       <c r="G3">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="I3">
-        <v>3.6</v>
+        <v>3.34</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -1038,10 +1038,10 @@
         <v>1.71</v>
       </c>
       <c r="W3">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="X3">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="Y3">
         <v>1.68</v>
@@ -1097,91 +1097,91 @@
         <v>96</v>
       </c>
       <c r="G4">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H4">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="I4">
+        <v>3.02</v>
+      </c>
+      <c r="J4">
+        <v>1.05</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>1.25</v>
+      </c>
+      <c r="M4">
+        <v>3.6</v>
+      </c>
+      <c r="N4">
+        <v>1.86</v>
+      </c>
+      <c r="O4">
+        <v>1.75</v>
+      </c>
+      <c r="P4">
+        <v>1.36</v>
+      </c>
+      <c r="Q4">
         <v>2.9</v>
-      </c>
-      <c r="J4">
-        <v>1.01</v>
-      </c>
-      <c r="K4">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="L4">
-        <v>1.29</v>
-      </c>
-      <c r="M4">
-        <v>3.4</v>
-      </c>
-      <c r="N4">
-        <v>1.85</v>
-      </c>
-      <c r="O4">
-        <v>1.85</v>
-      </c>
-      <c r="P4">
-        <v>1.38</v>
-      </c>
-      <c r="Q4">
-        <v>2.8</v>
       </c>
       <c r="R4">
         <v>1.67</v>
       </c>
       <c r="S4">
+        <v>2.08</v>
+      </c>
+      <c r="T4">
+        <v>1.33</v>
+      </c>
+      <c r="U4">
+        <v>1.28</v>
+      </c>
+      <c r="V4">
+        <v>1.65</v>
+      </c>
+      <c r="W4">
+        <v>1.8</v>
+      </c>
+      <c r="X4">
+        <v>0.25</v>
+      </c>
+      <c r="Y4">
+        <v>2.14</v>
+      </c>
+      <c r="Z4">
+        <v>1.32</v>
+      </c>
+      <c r="AA4">
+        <v>3.46</v>
+      </c>
+      <c r="AB4">
+        <v>1.7</v>
+      </c>
+      <c r="AC4">
+        <v>8</v>
+      </c>
+      <c r="AD4">
+        <v>2.6</v>
+      </c>
+      <c r="AE4">
+        <v>1.13</v>
+      </c>
+      <c r="AF4">
+        <v>1.21</v>
+      </c>
+      <c r="AG4">
+        <v>1.38</v>
+      </c>
+      <c r="AH4">
+        <v>1.67</v>
+      </c>
+      <c r="AI4">
         <v>2.1</v>
-      </c>
-      <c r="T4">
-        <v>1.44</v>
-      </c>
-      <c r="U4">
-        <v>1.3</v>
-      </c>
-      <c r="V4">
-        <v>1.57</v>
-      </c>
-      <c r="W4">
-        <v>0.8</v>
-      </c>
-      <c r="X4">
-        <v>1.5</v>
-      </c>
-      <c r="Y4">
-        <v>1.44</v>
-      </c>
-      <c r="Z4">
-        <v>1.16</v>
-      </c>
-      <c r="AA4">
-        <v>2.6</v>
-      </c>
-      <c r="AB4">
-        <v>1.8</v>
-      </c>
-      <c r="AC4">
-        <v>7.5</v>
-      </c>
-      <c r="AD4">
-        <v>2.43</v>
-      </c>
-      <c r="AE4">
-        <v>1.2</v>
-      </c>
-      <c r="AF4">
-        <v>1.37</v>
-      </c>
-      <c r="AG4">
-        <v>1.65</v>
-      </c>
-      <c r="AH4">
-        <v>2.1</v>
-      </c>
-      <c r="AI4">
-        <v>2.8</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1204,37 +1204,37 @@
         <v>97</v>
       </c>
       <c r="G5">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="H5">
+        <v>3.18</v>
+      </c>
+      <c r="I5">
+        <v>2.55</v>
+      </c>
+      <c r="J5">
+        <v>1.01</v>
+      </c>
+      <c r="K5">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L5">
+        <v>1.29</v>
+      </c>
+      <c r="M5">
         <v>3.4</v>
       </c>
-      <c r="I5">
-        <v>2.15</v>
-      </c>
-      <c r="J5">
-        <v>1.05</v>
-      </c>
-      <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>1.25</v>
-      </c>
-      <c r="M5">
-        <v>3.6</v>
-      </c>
       <c r="N5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P5">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q5">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="R5">
         <v>1.67</v>
@@ -1243,52 +1243,52 @@
         <v>2.1</v>
       </c>
       <c r="T5">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="U5">
         <v>1.3</v>
       </c>
       <c r="V5">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="W5">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X5">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="Z5">
-        <v>1.86</v>
+        <v>1.16</v>
       </c>
       <c r="AA5">
-        <v>3.32</v>
+        <v>2.6</v>
       </c>
       <c r="AB5">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="AC5">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD5">
-        <v>1.64</v>
+        <v>2.43</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF5">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AG5">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="AH5">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="AI5">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1311,13 +1311,13 @@
         <v>98</v>
       </c>
       <c r="G6">
-        <v>2.15</v>
+        <v>3.12</v>
       </c>
       <c r="H6">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="I6">
-        <v>3.25</v>
+        <v>1.99</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1332,10 +1332,10 @@
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="O6">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="P6">
         <v>1.36</v>
@@ -1347,55 +1347,55 @@
         <v>1.67</v>
       </c>
       <c r="S6">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T6">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="U6">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V6">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="W6">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X6">
-        <v>0.25</v>
+        <v>1.6</v>
       </c>
       <c r="Y6">
-        <v>2.14</v>
+        <v>1.46</v>
       </c>
       <c r="Z6">
-        <v>1.32</v>
+        <v>1.86</v>
       </c>
       <c r="AA6">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="AB6">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="AC6">
         <v>8</v>
       </c>
       <c r="AD6">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF6">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AG6">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AH6">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AI6">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1418,91 +1418,91 @@
         <v>99</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3.5</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1.03</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>1.21</v>
+      </c>
+      <c r="M7">
+        <v>4.53</v>
+      </c>
+      <c r="N7">
         <v>1.59</v>
       </c>
-      <c r="H7">
-        <v>4.4</v>
-      </c>
-      <c r="I7">
-        <v>5.1</v>
-      </c>
-      <c r="J7">
-        <v>1.04</v>
-      </c>
-      <c r="K7">
-        <v>14</v>
-      </c>
-      <c r="L7">
-        <v>1.24</v>
-      </c>
-      <c r="M7">
-        <v>4.07</v>
-      </c>
-      <c r="N7">
-        <v>1.61</v>
-      </c>
       <c r="O7">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="P7">
+        <v>1.29</v>
+      </c>
+      <c r="Q7">
+        <v>3.24</v>
+      </c>
+      <c r="R7">
+        <v>1.57</v>
+      </c>
+      <c r="S7">
+        <v>2.34</v>
+      </c>
+      <c r="T7">
         <v>1.3</v>
       </c>
-      <c r="Q7">
-        <v>3.2</v>
-      </c>
-      <c r="R7">
-        <v>1.65</v>
-      </c>
-      <c r="S7">
-        <v>2.18</v>
-      </c>
-      <c r="T7">
-        <v>1.25</v>
-      </c>
       <c r="U7">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="V7">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="W7">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="X7">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="Y7">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="Z7">
         <v>1.32</v>
       </c>
       <c r="AA7">
-        <v>3.02</v>
+        <v>2.87</v>
       </c>
       <c r="AB7">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="AC7">
         <v>7</v>
       </c>
       <c r="AD7">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AE7">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AF7">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AG7">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="AH7">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AI7">
-        <v>3.08</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1525,91 +1525,91 @@
         <v>100</v>
       </c>
       <c r="G8">
-        <v>2.06</v>
+        <v>1.61</v>
       </c>
       <c r="H8">
-        <v>4.14</v>
+        <v>3.7</v>
       </c>
       <c r="I8">
-        <v>3.06</v>
+        <v>4.6</v>
       </c>
       <c r="J8">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L8">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M8">
-        <v>4.53</v>
+        <v>4.07</v>
       </c>
       <c r="N8">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="O8">
-        <v>3.15</v>
+        <v>2.15</v>
       </c>
       <c r="P8">
+        <v>1.3</v>
+      </c>
+      <c r="Q8">
+        <v>3.2</v>
+      </c>
+      <c r="R8">
+        <v>1.65</v>
+      </c>
+      <c r="S8">
+        <v>2.18</v>
+      </c>
+      <c r="T8">
+        <v>1.25</v>
+      </c>
+      <c r="U8">
         <v>1.29</v>
       </c>
-      <c r="Q8">
-        <v>3.24</v>
-      </c>
-      <c r="R8">
-        <v>1.57</v>
-      </c>
-      <c r="S8">
-        <v>2.34</v>
-      </c>
-      <c r="T8">
-        <v>1.3</v>
-      </c>
-      <c r="U8">
-        <v>1.27</v>
-      </c>
       <c r="V8">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="W8">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="X8">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="Y8">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="Z8">
         <v>1.32</v>
       </c>
       <c r="AA8">
-        <v>2.87</v>
+        <v>3.02</v>
       </c>
       <c r="AB8">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AC8">
         <v>7</v>
       </c>
       <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8">
+        <v>1.24</v>
+      </c>
+      <c r="AF8">
+        <v>1.52</v>
+      </c>
+      <c r="AG8">
+        <v>1.84</v>
+      </c>
+      <c r="AH8">
         <v>2.25</v>
       </c>
-      <c r="AE8">
-        <v>1.2</v>
-      </c>
-      <c r="AF8">
-        <v>1.48</v>
-      </c>
-      <c r="AG8">
-        <v>1.76</v>
-      </c>
-      <c r="AH8">
-        <v>2.18</v>
-      </c>
       <c r="AI8">
-        <v>2.7</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1632,13 +1632,13 @@
         <v>101</v>
       </c>
       <c r="G9">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I9">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="J9">
         <v>1.01</v>
@@ -1653,10 +1653,10 @@
         <v>3.8</v>
       </c>
       <c r="N9">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>1.35</v>
@@ -1739,13 +1739,13 @@
         <v>102</v>
       </c>
       <c r="G10">
-        <v>5.5</v>
+        <v>23</v>
       </c>
       <c r="H10">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="J10">
         <v>1.08</v>
@@ -1760,10 +1760,10 @@
         <v>2.38</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O10">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="P10">
         <v>1.48</v>
@@ -1772,19 +1772,19 @@
         <v>2.4</v>
       </c>
       <c r="R10">
-        <v>2.45</v>
+        <v>4.9</v>
       </c>
       <c r="S10">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="T10">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="U10">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="V10">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="W10">
         <v>0.83</v>
@@ -1849,10 +1849,10 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I11">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J11">
         <v>1.05</v>
@@ -1867,7 +1867,7 @@
         <v>2.35</v>
       </c>
       <c r="N11">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
         <v>1.53</v>
@@ -1953,10 +1953,10 @@
         <v>104</v>
       </c>
       <c r="G12">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I12">
         <v>3.7</v>
@@ -1974,10 +1974,10 @@
         <v>2.68</v>
       </c>
       <c r="N12">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="O12">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P12">
         <v>1.53</v>
@@ -2060,67 +2060,67 @@
         <v>105</v>
       </c>
       <c r="G13">
-        <v>2.82</v>
+        <v>1.5</v>
       </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I13">
-        <v>2.31</v>
+        <v>6.5</v>
       </c>
       <c r="J13">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K13">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="L13">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M13">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="N13">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O13">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="P13">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="Q13">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="R13">
+        <v>2.16</v>
+      </c>
+      <c r="S13">
+        <v>1.66</v>
+      </c>
+      <c r="T13">
+        <v>1.1</v>
+      </c>
+      <c r="U13">
+        <v>1.23</v>
+      </c>
+      <c r="V13">
+        <v>2.54</v>
+      </c>
+      <c r="W13">
         <v>1.88</v>
       </c>
-      <c r="S13">
-        <v>1.88</v>
-      </c>
-      <c r="T13">
-        <v>2.19</v>
-      </c>
-      <c r="U13">
-        <v>1.26</v>
-      </c>
-      <c r="V13">
-        <v>1.17</v>
-      </c>
-      <c r="W13">
-        <v>1.29</v>
-      </c>
       <c r="X13">
-        <v>1.24</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y13">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="Z13">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AA13">
-        <v>2.99</v>
+        <v>2.64</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2167,67 +2167,67 @@
         <v>106</v>
       </c>
       <c r="G14">
-        <v>1.53</v>
+        <v>5.5</v>
       </c>
       <c r="H14">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I14">
-        <v>6.35</v>
+        <v>1.57</v>
       </c>
       <c r="J14">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K14">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="L14">
+        <v>1.25</v>
+      </c>
+      <c r="M14">
+        <v>3.3</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1.73</v>
+      </c>
+      <c r="P14">
+        <v>1.39</v>
+      </c>
+      <c r="Q14">
+        <v>2.98</v>
+      </c>
+      <c r="R14">
+        <v>1.88</v>
+      </c>
+      <c r="S14">
+        <v>1.88</v>
+      </c>
+      <c r="T14">
+        <v>2.19</v>
+      </c>
+      <c r="U14">
+        <v>1.26</v>
+      </c>
+      <c r="V14">
+        <v>1.17</v>
+      </c>
+      <c r="W14">
         <v>1.29</v>
       </c>
-      <c r="M14">
-        <v>3.05</v>
-      </c>
-      <c r="N14">
-        <v>2.06</v>
-      </c>
-      <c r="O14">
-        <v>1.76</v>
-      </c>
-      <c r="P14">
-        <v>1.43</v>
-      </c>
-      <c r="Q14">
-        <v>2.81</v>
-      </c>
-      <c r="R14">
-        <v>2.16</v>
-      </c>
-      <c r="S14">
-        <v>1.66</v>
-      </c>
-      <c r="T14">
-        <v>1.1</v>
-      </c>
-      <c r="U14">
-        <v>1.23</v>
-      </c>
-      <c r="V14">
-        <v>2.54</v>
-      </c>
-      <c r="W14">
-        <v>1.88</v>
-      </c>
       <c r="X14">
-        <v>0.9399999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="Y14">
-        <v>1.45</v>
+        <v>1.82</v>
       </c>
       <c r="Z14">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AA14">
-        <v>2.64</v>
+        <v>2.99</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2">
         <v>45083</v>
@@ -2265,7 +2265,7 @@
         <v>55</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>76</v>
@@ -2274,96 +2274,96 @@
         <v>107</v>
       </c>
       <c r="G15">
-        <v>1.72</v>
+        <v>2.7</v>
       </c>
       <c r="H15">
-        <v>3.68</v>
+        <v>3.2</v>
       </c>
       <c r="I15">
-        <v>4.44</v>
+        <v>2.3</v>
       </c>
       <c r="J15">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L15">
+        <v>1.24</v>
+      </c>
+      <c r="M15">
+        <v>4.07</v>
+      </c>
+      <c r="N15">
+        <v>1.73</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
         <v>1.3</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
+        <v>3.2</v>
+      </c>
+      <c r="R15">
+        <v>1.57</v>
+      </c>
+      <c r="S15">
+        <v>2.34</v>
+      </c>
+      <c r="T15">
+        <v>1.44</v>
+      </c>
+      <c r="U15">
+        <v>1.3</v>
+      </c>
+      <c r="V15">
+        <v>1.66</v>
+      </c>
+      <c r="W15">
+        <v>2.06</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1.62</v>
+      </c>
+      <c r="Z15">
+        <v>1.78</v>
+      </c>
+      <c r="AA15">
         <v>3.4</v>
       </c>
-      <c r="N15">
-        <v>1.8</v>
-      </c>
-      <c r="O15">
-        <v>1.71</v>
-      </c>
-      <c r="P15">
-        <v>1.39</v>
-      </c>
-      <c r="Q15">
-        <v>2.87</v>
-      </c>
-      <c r="R15">
-        <v>1.8</v>
-      </c>
-      <c r="S15">
+      <c r="AB15">
         <v>1.95</v>
       </c>
-      <c r="T15">
-        <v>1.14</v>
-      </c>
-      <c r="U15">
-        <v>1.25</v>
-      </c>
-      <c r="V15">
-        <v>1.9</v>
-      </c>
-      <c r="W15">
-        <v>0.86</v>
-      </c>
-      <c r="X15">
-        <v>2.17</v>
-      </c>
-      <c r="Y15">
-        <v>1.39</v>
-      </c>
-      <c r="Z15">
-        <v>1.23</v>
-      </c>
-      <c r="AA15">
-        <v>2.62</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
       <c r="AC15">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>45083</v>
@@ -2372,7 +2372,7 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>77</v>
@@ -2381,91 +2381,91 @@
         <v>108</v>
       </c>
       <c r="G16">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="H16">
-        <v>3.64</v>
+        <v>3.4</v>
       </c>
       <c r="I16">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L16">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M16">
-        <v>4.07</v>
+        <v>3.4</v>
       </c>
       <c r="N16">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="P16">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="Q16">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="R16">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>2.34</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="U16">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V16">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>2.06</v>
+        <v>0.86</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="Y16">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="Z16">
-        <v>1.78</v>
+        <v>1.23</v>
       </c>
       <c r="AA16">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="AB16">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>3.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2488,10 +2488,10 @@
         <v>109</v>
       </c>
       <c r="G17">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H17">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -2512,7 +2512,7 @@
         <v>2.25</v>
       </c>
       <c r="O17">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P17">
         <v>1.51</v>
@@ -2598,10 +2598,10 @@
         <v>2.45</v>
       </c>
       <c r="H18">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J18">
         <v>1.1</v>
@@ -2610,16 +2610,16 @@
         <v>6.5</v>
       </c>
       <c r="L18">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M18">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N18">
         <v>2.3</v>
       </c>
       <c r="O18">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P18">
         <v>1.52</v>
@@ -2628,58 +2628,58 @@
         <v>2.39</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T18">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U18">
         <v>1.3</v>
       </c>
       <c r="V18">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Y18">
-        <v>1.6</v>
+        <v>1.99</v>
       </c>
       <c r="Z18">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AA18">
-        <v>3.31</v>
+        <v>3.49</v>
       </c>
       <c r="AB18">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AC18">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD18">
-        <v>2.48</v>
+        <v>2.53</v>
       </c>
       <c r="AE18">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AF18">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AG18">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="AH18">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AI18">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2702,13 +2702,13 @@
         <v>111</v>
       </c>
       <c r="G19">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H19">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="I19">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J19">
         <v>1.1</v>
@@ -2717,16 +2717,16 @@
         <v>6.5</v>
       </c>
       <c r="L19">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M19">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N19">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="O19">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P19">
         <v>1.52</v>
@@ -2735,63 +2735,63 @@
         <v>2.39</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U19">
         <v>1.3</v>
       </c>
       <c r="V19">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W19">
         <v>1</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y19">
-        <v>1.99</v>
+        <v>1.6</v>
       </c>
       <c r="Z19">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AA19">
-        <v>3.49</v>
+        <v>3.31</v>
       </c>
       <c r="AB19">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AC19">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19">
-        <v>2.53</v>
+        <v>2.48</v>
       </c>
       <c r="AE19">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AF19">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AG19">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AH19">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AI19">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>45083</v>
@@ -2800,7 +2800,7 @@
         <v>57</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
         <v>81</v>
@@ -2809,91 +2809,91 @@
         <v>112</v>
       </c>
       <c r="G20">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H20">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="J20">
         <v>1.08</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="L20">
         <v>1.42</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="N20">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P20">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="Q20">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="R20">
         <v>2.1</v>
       </c>
       <c r="S20">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="T20">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="U20">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="V20">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="W20">
+        <v>1.6</v>
+      </c>
+      <c r="X20">
+        <v>0.2</v>
+      </c>
+      <c r="Y20">
         <v>1.75</v>
       </c>
-      <c r="X20">
-        <v>1.5</v>
-      </c>
-      <c r="Y20">
-        <v>1.02</v>
-      </c>
       <c r="Z20">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="AA20">
-        <v>2.25</v>
+        <v>2.81</v>
       </c>
       <c r="AB20">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="AC20">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD20">
-        <v>2.78</v>
+        <v>3.52</v>
       </c>
       <c r="AE20">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AF20">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AG20">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="AH20">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AI20">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2916,96 +2916,96 @@
         <v>113</v>
       </c>
       <c r="G21">
-        <v>2.95</v>
+        <v>1.67</v>
       </c>
       <c r="H21">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I21">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="J21">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L21">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M21">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
+        <v>2.25</v>
+      </c>
+      <c r="O21">
+        <v>1.57</v>
+      </c>
+      <c r="P21">
+        <v>1.47</v>
+      </c>
+      <c r="Q21">
+        <v>2.45</v>
+      </c>
+      <c r="R21">
+        <v>2.1</v>
+      </c>
+      <c r="S21">
+        <v>1.63</v>
+      </c>
+      <c r="T21">
+        <v>1.15</v>
+      </c>
+      <c r="U21">
+        <v>1.29</v>
+      </c>
+      <c r="V21">
+        <v>2.1</v>
+      </c>
+      <c r="W21">
+        <v>1.75</v>
+      </c>
+      <c r="X21">
+        <v>1.5</v>
+      </c>
+      <c r="Y21">
+        <v>1.02</v>
+      </c>
+      <c r="Z21">
+        <v>1.23</v>
+      </c>
+      <c r="AA21">
+        <v>2.25</v>
+      </c>
+      <c r="AB21">
+        <v>1.59</v>
+      </c>
+      <c r="AC21">
+        <v>8.5</v>
+      </c>
+      <c r="AD21">
+        <v>2.78</v>
+      </c>
+      <c r="AE21">
+        <v>1.22</v>
+      </c>
+      <c r="AF21">
+        <v>1.33</v>
+      </c>
+      <c r="AG21">
+        <v>1.65</v>
+      </c>
+      <c r="AH21">
         <v>2</v>
       </c>
-      <c r="O21">
-        <v>1.7</v>
-      </c>
-      <c r="P21">
-        <v>1.45</v>
-      </c>
-      <c r="Q21">
-        <v>2.75</v>
-      </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>1.91</v>
-      </c>
-      <c r="T21">
-        <v>1.66</v>
-      </c>
-      <c r="U21">
-        <v>1.25</v>
-      </c>
-      <c r="V21">
-        <v>1.36</v>
-      </c>
-      <c r="W21">
-        <v>0.5</v>
-      </c>
-      <c r="X21">
-        <v>1.75</v>
-      </c>
-      <c r="Y21">
-        <v>1.35</v>
-      </c>
-      <c r="Z21">
-        <v>1.22</v>
-      </c>
-      <c r="AA21">
-        <v>2.57</v>
-      </c>
-      <c r="AB21">
-        <v>1.91</v>
-      </c>
-      <c r="AC21">
-        <v>8</v>
-      </c>
-      <c r="AD21">
-        <v>2.1</v>
-      </c>
-      <c r="AE21">
-        <v>1.33</v>
-      </c>
-      <c r="AF21">
-        <v>1.68</v>
-      </c>
-      <c r="AG21">
-        <v>2.11</v>
-      </c>
-      <c r="AH21">
-        <v>2.39</v>
-      </c>
       <c r="AI21">
-        <v>3.84</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
         <v>45083</v>
@@ -3014,7 +3014,7 @@
         <v>57</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
@@ -3023,91 +3023,91 @@
         <v>114</v>
       </c>
       <c r="G22">
-        <v>1.73</v>
+        <v>2.8</v>
       </c>
       <c r="H22">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="J22">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K22">
-        <v>8.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M22">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="N22">
         <v>2.1</v>
       </c>
       <c r="O22">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P22">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="Q22">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>1.91</v>
+      </c>
+      <c r="T22">
+        <v>1.66</v>
+      </c>
+      <c r="U22">
+        <v>1.25</v>
+      </c>
+      <c r="V22">
+        <v>1.36</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>1.75</v>
+      </c>
+      <c r="Y22">
+        <v>1.35</v>
+      </c>
+      <c r="Z22">
+        <v>1.22</v>
+      </c>
+      <c r="AA22">
+        <v>2.57</v>
+      </c>
+      <c r="AB22">
+        <v>1.91</v>
+      </c>
+      <c r="AC22">
+        <v>8</v>
+      </c>
+      <c r="AD22">
         <v>2.1</v>
       </c>
-      <c r="S22">
+      <c r="AE22">
+        <v>1.33</v>
+      </c>
+      <c r="AF22">
         <v>1.68</v>
       </c>
-      <c r="T22">
-        <v>1.19</v>
-      </c>
-      <c r="U22">
-        <v>1.28</v>
-      </c>
-      <c r="V22">
-        <v>1.88</v>
-      </c>
-      <c r="W22">
-        <v>1.6</v>
-      </c>
-      <c r="X22">
-        <v>0.2</v>
-      </c>
-      <c r="Y22">
-        <v>1.75</v>
-      </c>
-      <c r="Z22">
-        <v>1.06</v>
-      </c>
-      <c r="AA22">
-        <v>2.81</v>
-      </c>
-      <c r="AB22">
-        <v>1.41</v>
-      </c>
-      <c r="AC22">
-        <v>10</v>
-      </c>
-      <c r="AD22">
-        <v>3.52</v>
-      </c>
-      <c r="AE22">
-        <v>1.21</v>
-      </c>
-      <c r="AF22">
-        <v>1.41</v>
-      </c>
       <c r="AG22">
-        <v>1.76</v>
+        <v>2.11</v>
       </c>
       <c r="AH22">
-        <v>2.16</v>
+        <v>2.39</v>
       </c>
       <c r="AI22">
-        <v>2.88</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3121,7 +3121,7 @@
         <v>58</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>84</v>
@@ -3130,91 +3130,91 @@
         <v>115</v>
       </c>
       <c r="G23">
-        <v>2.93</v>
+        <v>1.83</v>
       </c>
       <c r="H23">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>2.22</v>
+        <v>4.2</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N23">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Z23">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="AA23">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3228,7 +3228,7 @@
         <v>58</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
         <v>85</v>
@@ -3237,67 +3237,67 @@
         <v>116</v>
       </c>
       <c r="G24">
-        <v>1.98</v>
+        <v>2.58</v>
       </c>
       <c r="H24">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="I24">
-        <v>3.76</v>
+        <v>2.54</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W24">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="Z24">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="AA24">
-        <v>2.99</v>
+        <v>3.25</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         <v>117</v>
       </c>
       <c r="G25">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I25">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J25">
         <v>1.09</v>
@@ -3365,10 +3365,10 @@
         <v>2.63</v>
       </c>
       <c r="N25">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O25">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P25">
         <v>1.51</v>
@@ -3451,91 +3451,91 @@
         <v>118</v>
       </c>
       <c r="G26">
-        <v>4.4</v>
+        <v>1.67</v>
       </c>
       <c r="H26">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I26">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="J26">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L26">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M26">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O26">
+        <v>1.61</v>
+      </c>
+      <c r="P26">
+        <v>1.44</v>
+      </c>
+      <c r="Q26">
+        <v>2.63</v>
+      </c>
+      <c r="R26">
+        <v>2.05</v>
+      </c>
+      <c r="S26">
         <v>1.7</v>
       </c>
-      <c r="P26">
-        <v>1.4</v>
-      </c>
-      <c r="Q26">
-        <v>2.75</v>
-      </c>
-      <c r="R26">
-        <v>1.95</v>
-      </c>
-      <c r="S26">
-        <v>1.8</v>
-      </c>
       <c r="T26">
-        <v>2.05</v>
+        <v>1.17</v>
       </c>
       <c r="U26">
         <v>1.28</v>
       </c>
       <c r="V26">
-        <v>1.18</v>
+        <v>2.12</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="X26">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="Y26">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="Z26">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="AA26">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AB26">
-        <v>3.16</v>
+        <v>1.35</v>
       </c>
       <c r="AC26">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD26">
-        <v>1.51</v>
+        <v>3.75</v>
       </c>
       <c r="AE26">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AF26">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AG26">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AH26">
-        <v>1.98</v>
+        <v>2.36</v>
       </c>
       <c r="AI26">
-        <v>2.48</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3558,31 +3558,31 @@
         <v>119</v>
       </c>
       <c r="G27">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H27">
         <v>3.5</v>
       </c>
       <c r="I27">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="J27">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K27">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="L27">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M27">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="P27">
         <v>1.44</v>
@@ -3591,58 +3591,58 @@
         <v>2.63</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S27">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="T27">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="U27">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V27">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="W27">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="X27">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Y27">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="Z27">
-        <v>1.03</v>
+        <v>1.62</v>
       </c>
       <c r="AA27">
-        <v>2.9</v>
+        <v>3.34</v>
       </c>
       <c r="AB27">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AC27">
-        <v>6.5</v>
+        <v>7.25</v>
       </c>
       <c r="AD27">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="AE27">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AF27">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AG27">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AH27">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="AI27">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3665,91 +3665,91 @@
         <v>120</v>
       </c>
       <c r="G28">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H28">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I28">
-        <v>6.25</v>
+        <v>1.67</v>
       </c>
       <c r="J28">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K28">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O28">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="P28">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q28">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R28">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>1.11</v>
+        <v>2.05</v>
       </c>
       <c r="U28">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V28">
-        <v>2.4</v>
+        <v>1.18</v>
       </c>
       <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
         <v>1.75</v>
       </c>
-      <c r="X28">
-        <v>1.25</v>
-      </c>
       <c r="Y28">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Z28">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AA28">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="AB28">
-        <v>1.23</v>
+        <v>3.16</v>
       </c>
       <c r="AC28">
-        <v>7.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD28">
-        <v>4.9</v>
+        <v>1.51</v>
       </c>
       <c r="AE28">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AF28">
+        <v>1.3</v>
+      </c>
+      <c r="AG28">
         <v>1.63</v>
       </c>
-      <c r="AG28">
-        <v>2</v>
-      </c>
       <c r="AH28">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="AI28">
-        <v>3.42</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3772,13 +3772,13 @@
         <v>121</v>
       </c>
       <c r="G29">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J29">
         <v>1.1</v>
@@ -3793,7 +3793,7 @@
         <v>2.6</v>
       </c>
       <c r="N29">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O29">
         <v>1.53</v>
@@ -3879,13 +3879,13 @@
         <v>122</v>
       </c>
       <c r="G30">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H30">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="J30">
         <v>1.07</v>
@@ -3900,10 +3900,10 @@
         <v>2.95</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O30">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="P30">
         <v>1.42</v>
@@ -3951,7 +3951,7 @@
         <v>3.15</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF30">
         <v>1.22</v>
@@ -3989,10 +3989,10 @@
         <v>2.9</v>
       </c>
       <c r="H31">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="I31">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J31">
         <v>1.05</v>
@@ -4007,7 +4007,7 @@
         <v>2.57</v>
       </c>
       <c r="N31">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
         <v>1.53</v>
@@ -4093,13 +4093,13 @@
         <v>124</v>
       </c>
       <c r="G32">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H32">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -4117,7 +4117,7 @@
         <v>1.7</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P32">
         <v>1.33</v>
